--- a/src/test/resources/listColumns.xlsx
+++ b/src/test/resources/listColumns.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>会员姓名
 （不超过12字）</t>
@@ -46,13 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
-    <rPh sb="0" eb="1">
-      <t>xing'bie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生日（可不填）</t>
     <rPh sb="0" eb="1">
       <t>sheng'ri</t>
@@ -62,119 +55,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>bu'tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡名称</t>
-    <rPh sb="0" eb="1">
-      <t>ka'ming'c</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费上限（次）
-（次卡、私教卡不填此项）</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'fei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ci'ka</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>si'jiao'ka</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bu'tian</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ci'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总次数（次）
-（年卡不填此项）</t>
-    <rPh sb="0" eb="1">
-      <t>zong'ci'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>nian'ka</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bu'tian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ci'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余次数（次）
-（年卡不填此项）</t>
-    <rPh sb="0" eb="1">
-      <t>sheng'yu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ci'shu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>nian'ka</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bu'tian</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ci'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期开始日</t>
-    <rPh sb="0" eb="1">
-      <t>you'xiao'qi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kai'shi'ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期截止日</t>
-    <rPh sb="0" eb="1">
-      <t>you'xiao'qi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jie'zhi'ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办卡价格
-（实际收费）</t>
-    <rPh sb="0" eb="1">
-      <t>ban'ka</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jia'ge</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shi'ji</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shou'fei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,27 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女</t>
-    <rPh sb="0" eb="1">
-      <t>nv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例次卡（100次次卡）</t>
-    <rPh sb="0" eb="1">
-      <t>shi'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年8月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>示例-会员李红</t>
     <rPh sb="0" eb="1">
       <t>shi'li</t>
@@ -323,53 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例年卡（一周3次年卡）</t>
-    <rPh sb="0" eb="1">
-      <t>shi'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nian'ka</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例私教卡（60次私教卡）</t>
-    <rPh sb="0" eb="1">
-      <t>shi'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>si'jiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年5月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>示例-无卡会员张晓</t>
     <rPh sb="0" eb="1">
       <t>shi'li</t>
@@ -399,10 +211,6 @@
   </si>
   <si>
     <t>13745367698</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2880</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -452,6 +260,132 @@
   </si>
   <si>
     <t>4手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1归属地</t>
+    <rPh sb="1" eb="2">
+      <t>gv'uu'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2归属地</t>
+    <rPh sb="1" eb="2">
+      <t>gv'uu'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3归属地</t>
+    <rPh sb="1" eb="2">
+      <t>gv'uu'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4归属地</t>
+    <rPh sb="1" eb="2">
+      <t>gv'uu'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <rPh sb="0" eb="1">
+      <t>nj'j;</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <rPh sb="0" eb="1">
+      <t>bz'j;</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <rPh sb="0" eb="1">
+      <t>uh'hl</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <rPh sb="0" eb="1">
+      <t>tm'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <rPh sb="0" eb="1">
+      <t>xi'oj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州</t>
+    <rPh sb="0" eb="1">
+      <t>vg'vb</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <rPh sb="0" eb="1">
+      <t>fu'jm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <rPh sb="0" eb="1">
+      <t>gd'ds</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <rPh sb="0" eb="1">
+      <t>gd'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <rPh sb="0" eb="1">
+      <t>hu'nj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <rPh sb="0" eb="1">
+      <t>hu'bz</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西宁</t>
+    <rPh sb="0" eb="1">
+      <t>xi'n;</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <rPh sb="0" eb="1">
+      <t>fu'vb</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <rPh sb="0" eb="1">
+      <t>hh'vb</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +393,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="&quot;男&quot;;&quot;女&quot;"/>
+  <numFmts count="1">
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -573,7 +505,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -587,8 +519,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -596,27 +538,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -629,20 +562,23 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="23">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -650,12 +586,22 @@
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -930,360 +876,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="10" customWidth="1"/>
-    <col min="3" max="6" width="14.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="11" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="10" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.5" style="7" customWidth="1"/>
+    <col min="2" max="8" width="14.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="15" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="5">
+        <v>31853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="11">
+        <v>31853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="F10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7">
-        <v>31853</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5">
-        <v>100</v>
-      </c>
-      <c r="L3" s="5">
-        <v>90</v>
-      </c>
-      <c r="M3" s="7">
-        <v>42583</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5">
-        <v>60</v>
-      </c>
-      <c r="L5" s="5">
-        <v>40</v>
-      </c>
-      <c r="M5" s="7">
-        <v>42125</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="15">
-        <v>31853</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13">
-        <v>100</v>
-      </c>
-      <c r="L7" s="13">
-        <v>90</v>
-      </c>
-      <c r="M7" s="15">
-        <v>42583</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="G10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="13">
-        <v>3</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="16">
-        <v>42370</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13">
-        <v>60</v>
-      </c>
-      <c r="L9" s="13">
-        <v>40</v>
-      </c>
-      <c r="M9" s="15">
-        <v>42125</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="13"/>
+      <c r="J10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/listColumns.xlsx
+++ b/src/test/resources/listColumns.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoohuang/GitHub/excel2javabeans/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoo/GitHub/excel2javabeans/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -394,7 +394,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -544,10 +544,10 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,26 +556,26 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -876,35 +876,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="7" customWidth="1"/>
     <col min="2" max="8" width="14.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="14" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" style="9" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -942,18 +942,18 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="5">
         <v>31853</v>
       </c>
@@ -962,165 +962,177 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="11">
-        <v>31853</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="11"/>
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="11">
+        <v>31853</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>30</v>
+      <c r="I9" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
